--- a/DocOrganizacao.xlsx
+++ b/DocOrganizacao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia.andrade\Downloads\challengePlusoft2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia.andrade\Challenge_Plusoft-Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F96329A-A4C8-4FAF-8424-60895870319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89C8F1E-8C17-42C8-A552-89AC35177A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3D1B1A50-2E75-4049-AD12-D1F5912E7166}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">tabelaOrganizacao!$A$1:$D$16</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">tabelaOrganizacao!$A$1:$D$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Data</t>
   </si>
@@ -132,14 +132,37 @@
   </si>
   <si>
     <t xml:space="preserve">Guilherme </t>
+  </si>
+  <si>
+    <t>Preparação para apresentações</t>
+  </si>
+  <si>
+    <t>Correção de bugs identificados</t>
+  </si>
+  <si>
+    <t>Revisão de estratégias</t>
+  </si>
+  <si>
+    <t>Adição de JWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento do swagger </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -167,9 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85DE82A2-02B8-448B-9BC7-42A8BAD189E7}" name="tabelaOrganizacao" displayName="tabelaOrganizacao" ref="A1:D16" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D16" xr:uid="{85DE82A2-02B8-448B-9BC7-42A8BAD189E7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85DE82A2-02B8-448B-9BC7-42A8BAD189E7}" name="tabelaOrganizacao" displayName="tabelaOrganizacao" ref="A1:D21" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D21" xr:uid="{85DE82A2-02B8-448B-9BC7-42A8BAD189E7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5E0976C5-40F2-4612-9EF9-ABBB3E553ECB}" uniqueName="1" name="Data" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{DD1451A9-F397-4A4C-BB13-0FF2806B124E}" uniqueName="2" name="Atividade" queryTableFieldId="2" dataDxfId="2"/>
@@ -543,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C46FE1-5283-4A58-AA09-D079D539B636}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +584,7 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45383</v>
       </c>
@@ -585,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45384</v>
       </c>
@@ -599,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45385</v>
       </c>
@@ -613,7 +640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45386</v>
       </c>
@@ -627,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45387</v>
       </c>
@@ -641,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45388</v>
       </c>
@@ -655,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45389</v>
       </c>
@@ -669,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45390</v>
       </c>
@@ -683,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45391</v>
       </c>
@@ -694,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45392</v>
       </c>
@@ -711,7 +738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45393</v>
       </c>
@@ -725,7 +752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45394</v>
       </c>
@@ -738,8 +765,9 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45395</v>
       </c>
@@ -753,7 +781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45396</v>
       </c>
@@ -767,7 +795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45397</v>
       </c>
@@ -778,6 +806,76 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
